--- a/settings/lang001.xlsx
+++ b/settings/lang001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PSU\lemonlab\language_cz_foreign_recognition\settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Psu\lemonlab\czforeign_experiment\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0DCC2C-03DE-44C1-A96C-D17FD548295C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13773797-2E76-4518-BFAB-96664B79A419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="3645" windowWidth="37665" windowHeight="15060" xr2:uid="{BA95B8C4-8E50-4680-9E2E-72149A587AFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{BA95B8C4-8E50-4680-9E2E-72149A587AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>trial</t>
   </si>
@@ -44,10 +44,76 @@
     <t>stimulus</t>
   </si>
   <si>
-    <t>stimuli/recording1.wav</t>
-  </si>
-  <si>
-    <t>stimuli/recording2.wav</t>
+    <t>stimuli/ST1_1.wav</t>
+  </si>
+  <si>
+    <t>stimuli/ST1_2.wav</t>
+  </si>
+  <si>
+    <t>stimuli/ST1_3.wav</t>
+  </si>
+  <si>
+    <t>stimuli/ST2_1.wav</t>
+  </si>
+  <si>
+    <t>stimuli/ST2_2.wav</t>
+  </si>
+  <si>
+    <t>stimuli/ST2_3.wav</t>
+  </si>
+  <si>
+    <t>stimuli/ST3_1.wav</t>
+  </si>
+  <si>
+    <t>stimuli/ST3_2.wav</t>
+  </si>
+  <si>
+    <t>stimuli/ST3_3.wav</t>
+  </si>
+  <si>
+    <t>stimuli/ST4_1.wav</t>
+  </si>
+  <si>
+    <t>stimuli/ST4_2.wav</t>
+  </si>
+  <si>
+    <t>stimuli/ST4_3.wav</t>
+  </si>
+  <si>
+    <t>stimuli/O1_1.wav</t>
+  </si>
+  <si>
+    <t>stimuli/O1_2.wav</t>
+  </si>
+  <si>
+    <t>stimuli/O1_3.wav</t>
+  </si>
+  <si>
+    <t>stimuli/O2_1.wav</t>
+  </si>
+  <si>
+    <t>stimuli/O2_2.wav</t>
+  </si>
+  <si>
+    <t>stimuli/O2_3.wav</t>
+  </si>
+  <si>
+    <t>stimuli/O3_1.wav</t>
+  </si>
+  <si>
+    <t>stimuli/O3_3.wav</t>
+  </si>
+  <si>
+    <t>stimuli/O3_2.wav</t>
+  </si>
+  <si>
+    <t>stimuli/O4_1.wav</t>
+  </si>
+  <si>
+    <t>stimuli/O4_2.wav</t>
+  </si>
+  <si>
+    <t>stimuli/O4_3.wav</t>
   </si>
 </sst>
 </file>
@@ -420,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC88A678-0A5C-4E59-8DE4-90A6B0FC548A}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -468,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -476,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,7 +550,151 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
